--- a/code/outputs/P2_summary_table.xlsx
+++ b/code/outputs/P2_summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1545,78 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>§ 275.0-2_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" t="n">
+        <v>28</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-8.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>§ 275.0-5_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-8.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>§ 275.0-7_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-8.json</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/outputs/P2_summary_table.xlsx
+++ b/code/outputs/P2_summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,6 +1617,78 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>§ 275.0-2_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>32</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-9.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>§ 275.0-5_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-9.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>§ 275.0-7_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>26</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>documents-2024-10-22-9.json</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/outputs/P2_summary_table.xlsx
+++ b/code/outputs/P2_summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,78 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>§ 275.0-2_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>documents-2024-11-01-1.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>§ 275.0-5_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>documents-2024-11-01-1.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>§ 275.0-7_P2|llm_response</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>documents-2024-11-01-1.json</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
